--- a/Analysis/Mag7_Return.xlsx
+++ b/Analysis/Mag7_Return.xlsx
@@ -8,34 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hung\TAMU\Classes\DEEP REINFORCEMENT LEARNING\Assignments\rl4trading\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF0A6FB-8006-4914-BCEC-FE0E419C979A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6602D2-24A4-4898-82B8-0818F434B6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{0EA82F2B-BFF2-498C-BEF1-B4E1A7837EA1}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="1" xr2:uid="{0EA82F2B-BFF2-498C-BEF1-B4E1A7837EA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Portfolio" sheetId="1" r:id="rId1"/>
     <sheet name="Sharpie" sheetId="5" r:id="rId2"/>
     <sheet name="Sharpie1" sheetId="6" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Portfolio!$B$2:$B$50</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Portfolio!$C$1</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Portfolio!$G$2:$G$50</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Portfolio!$H$1</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Portfolio!$H$2:$H$50</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Portfolio!$C$2:$C$50</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Portfolio!$D$1</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Portfolio!$D$2:$D$50</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Portfolio!$E$1</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Portfolio!$E$2:$E$50</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Portfolio!$F$1</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Portfolio!$F$2:$F$50</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Portfolio!$G$1</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId4"/>
-    <pivotCache cacheId="2" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -57,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="20">
   <si>
     <t>Time_Step</t>
   </si>
@@ -115,12 +100,15 @@
   <si>
     <t>Date</t>
   </si>
+  <si>
+    <t>Final Return Rate</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,6 +120,12 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -217,9 +211,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -391,6 +382,9 @@
     <dxf>
       <alignment wrapText="1"/>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1132,151 +1126,151 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="49"/>
                 <c:pt idx="0">
-                  <c:v>102552.98614501899</c:v>
+                  <c:v>104032.771316528</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>102672.1328125</c:v>
+                  <c:v>105042.49905395501</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>102354.02850341699</c:v>
+                  <c:v>105996.820449829</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>102036.781799316</c:v>
+                  <c:v>105858.732299804</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>103394.670410156</c:v>
+                  <c:v>105967.46746826101</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>102983.30200195299</c:v>
+                  <c:v>103996.615005493</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>102340.518066406</c:v>
+                  <c:v>102707.282684326</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>107706.40527343701</c:v>
+                  <c:v>105560.76260375899</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>108859.212341308</c:v>
+                  <c:v>107170.51890563899</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>109921.295654296</c:v>
+                  <c:v>108930.45935058501</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>109663.142028808</c:v>
+                  <c:v>108287.93862915</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>112090.416564941</c:v>
+                  <c:v>108531.983291625</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>111373.713378906</c:v>
+                  <c:v>107271.106781005</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>111732.66418457001</c:v>
+                  <c:v>110782.460189819</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>112312.97781372</c:v>
+                  <c:v>115127.92309570299</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>116523.69827270501</c:v>
+                  <c:v>118427.12557983299</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>116512.00166320799</c:v>
+                  <c:v>120483.71810913</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>116006.796188354</c:v>
+                  <c:v>120908.088394165</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>116800.358276367</c:v>
+                  <c:v>119573.21510314901</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>118578.843200683</c:v>
+                  <c:v>121881.16859436</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>118891.50584411601</c:v>
+                  <c:v>123600.983901977</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>118406.416870117</c:v>
+                  <c:v>121516.293273925</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>116509.92587280201</c:v>
+                  <c:v>123560.23529052699</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>116028.968048095</c:v>
+                  <c:v>120722.484786987</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>116325.344055175</c:v>
+                  <c:v>123370.57156372</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>115193.03421020501</c:v>
+                  <c:v>123793.01019287101</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>114693.23583984299</c:v>
+                  <c:v>123718.998046875</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>115524.230346679</c:v>
+                  <c:v>126211.252273559</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>115918.631896972</c:v>
+                  <c:v>123050.04560852</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>115776.523468017</c:v>
+                  <c:v>121886.604156494</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>118015.193405151</c:v>
+                  <c:v>125747.20759582501</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>115936.25999450601</c:v>
+                  <c:v>122504.215194702</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>115471.14024353</c:v>
+                  <c:v>123738.794784545</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>113994.76252746501</c:v>
+                  <c:v>123006.922195434</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>111462.796020507</c:v>
+                  <c:v>117574.111251831</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>114890.38973999</c:v>
+                  <c:v>121960.498901367</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>115470.44833374</c:v>
+                  <c:v>120686.459365844</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>117924.189376831</c:v>
+                  <c:v>121961.650848388</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>118083.212722778</c:v>
+                  <c:v>120770.24635314901</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>119025.888809204</c:v>
+                  <c:v>122708.74340820299</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>120727.331619262</c:v>
+                  <c:v>125254.09109497</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>118037.146499633</c:v>
+                  <c:v>125515.286773681</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>118616.474487304</c:v>
+                  <c:v>124020.200531005</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>119271.164199829</c:v>
+                  <c:v>125087.829193115</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>122492.809661865</c:v>
+                  <c:v>127435.246002197</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>126896.648162841</c:v>
+                  <c:v>130271.949600219</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>126048.85391235301</c:v>
+                  <c:v>130625.222824096</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>129392.956787109</c:v>
+                  <c:v>132284.143218994</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>129392.956787109</c:v>
+                  <c:v>132284.143218994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1333,151 +1327,151 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="49"/>
                 <c:pt idx="0">
-                  <c:v>100695.45869445799</c:v>
+                  <c:v>101422.29321289</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100576.963211059</c:v>
+                  <c:v>101863.1169281</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>101544.37995910599</c:v>
+                  <c:v>102496.07554626399</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>101995.615554809</c:v>
+                  <c:v>102664.012832641</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>102714.753250122</c:v>
+                  <c:v>102440.999755859</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>102166.930618286</c:v>
+                  <c:v>100388.146835327</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>101001.62556457501</c:v>
+                  <c:v>100375.678085327</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>104418.066604614</c:v>
+                  <c:v>102854.694885253</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>104997.639846801</c:v>
+                  <c:v>105393.416351318</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>104665.453811645</c:v>
+                  <c:v>105137.00584411601</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>104039.177322387</c:v>
+                  <c:v>105800.534744262</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>102813.548660278</c:v>
+                  <c:v>107385.349243164</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>100273.351760864</c:v>
+                  <c:v>105508.45156860301</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>101532.601150512</c:v>
+                  <c:v>106098.670120239</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>103156.353836059</c:v>
+                  <c:v>105975.421096801</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>104181.830398559</c:v>
+                  <c:v>109653.59596252401</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>104565.999221801</c:v>
+                  <c:v>110436.149780273</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>104601.206008911</c:v>
+                  <c:v>109829.197311401</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>104547.30525207501</c:v>
+                  <c:v>110553.24092102</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>107558.96784973099</c:v>
+                  <c:v>110993.90107727</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>112188.517440795</c:v>
+                  <c:v>111014.252090454</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>111466.521865844</c:v>
+                  <c:v>109429.869857788</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>110538.859573364</c:v>
+                  <c:v>109156.212341308</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>112534.200332641</c:v>
+                  <c:v>108737.53434753401</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>111917.226913452</c:v>
+                  <c:v>108474.84082031201</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>111466.521865844</c:v>
+                  <c:v>107801.065567016</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>111554.040328979</c:v>
+                  <c:v>107333.38897705</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>111912.84931945799</c:v>
+                  <c:v>107552.289260864</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>112647.977676391</c:v>
+                  <c:v>108414.431564331</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>113037.416458129</c:v>
+                  <c:v>108029.14706420799</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>112455.443740844</c:v>
+                  <c:v>108210.49124145501</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>112363.561050415</c:v>
+                  <c:v>108069.138916015</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>113054.92683410599</c:v>
+                  <c:v>108733.67086791901</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>111295.862533569</c:v>
+                  <c:v>107867.823379516</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>107458.329971313</c:v>
+                  <c:v>102728.133132934</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>108504.13383483799</c:v>
+                  <c:v>104337.558227539</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>108552.267318725</c:v>
+                  <c:v>103590.74244689901</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>109239.262191772</c:v>
+                  <c:v>103714.63714599601</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>108412.244461059</c:v>
+                  <c:v>103020.966720581</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>110530.104385375</c:v>
+                  <c:v>105032.450119018</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>114883.985855102</c:v>
+                  <c:v>109167.643478393</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>115115.89808654699</c:v>
+                  <c:v>109375.943527221</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>113225.57948303199</c:v>
+                  <c:v>107847.92353820799</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>113720.02705383299</c:v>
+                  <c:v>108169.060592651</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>115137.792739868</c:v>
+                  <c:v>109217.036087036</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>117758.85542297301</c:v>
+                  <c:v>111937.511886596</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>117841.996292114</c:v>
+                  <c:v>111891.808349609</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>118148.307571411</c:v>
+                  <c:v>114213.116607666</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>118148.307571411</c:v>
+                  <c:v>114213.116607666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3419,151 +3413,151 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="49"/>
                 <c:pt idx="0">
-                  <c:v>102552.98614501899</c:v>
+                  <c:v>104032.771316528</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>102672.1328125</c:v>
+                  <c:v>105042.49905395501</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>102354.02850341699</c:v>
+                  <c:v>105996.820449829</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>102036.781799316</c:v>
+                  <c:v>105858.732299804</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>103394.670410156</c:v>
+                  <c:v>105967.46746826101</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>102983.30200195299</c:v>
+                  <c:v>103996.615005493</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>102340.518066406</c:v>
+                  <c:v>102707.282684326</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>107706.40527343701</c:v>
+                  <c:v>105560.76260375899</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>108859.212341308</c:v>
+                  <c:v>107170.51890563899</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>109921.295654296</c:v>
+                  <c:v>108930.45935058501</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>109663.142028808</c:v>
+                  <c:v>108287.93862915</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>112090.416564941</c:v>
+                  <c:v>108531.983291625</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>111373.713378906</c:v>
+                  <c:v>107271.106781005</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>111732.66418457001</c:v>
+                  <c:v>110782.460189819</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>112312.97781372</c:v>
+                  <c:v>115127.92309570299</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>116523.69827270501</c:v>
+                  <c:v>118427.12557983299</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>116512.00166320799</c:v>
+                  <c:v>120483.71810913</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>116006.796188354</c:v>
+                  <c:v>120908.088394165</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>116800.358276367</c:v>
+                  <c:v>119573.21510314901</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>118578.843200683</c:v>
+                  <c:v>121881.16859436</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>118891.50584411601</c:v>
+                  <c:v>123600.983901977</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>118406.416870117</c:v>
+                  <c:v>121516.293273925</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>116509.92587280201</c:v>
+                  <c:v>123560.23529052699</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>116028.968048095</c:v>
+                  <c:v>120722.484786987</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>116325.344055175</c:v>
+                  <c:v>123370.57156372</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>115193.03421020501</c:v>
+                  <c:v>123793.01019287101</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>114693.23583984299</c:v>
+                  <c:v>123718.998046875</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>115524.230346679</c:v>
+                  <c:v>126211.252273559</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>115918.631896972</c:v>
+                  <c:v>123050.04560852</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>115776.523468017</c:v>
+                  <c:v>121886.604156494</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>118015.193405151</c:v>
+                  <c:v>125747.20759582501</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>115936.25999450601</c:v>
+                  <c:v>122504.215194702</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>115471.14024353</c:v>
+                  <c:v>123738.794784545</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>113994.76252746501</c:v>
+                  <c:v>123006.922195434</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>111462.796020507</c:v>
+                  <c:v>117574.111251831</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>114890.38973999</c:v>
+                  <c:v>121960.498901367</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>115470.44833374</c:v>
+                  <c:v>120686.459365844</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>117924.189376831</c:v>
+                  <c:v>121961.650848388</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>118083.212722778</c:v>
+                  <c:v>120770.24635314901</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>119025.888809204</c:v>
+                  <c:v>122708.74340820299</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>120727.331619262</c:v>
+                  <c:v>125254.09109497</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>118037.146499633</c:v>
+                  <c:v>125515.286773681</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>118616.474487304</c:v>
+                  <c:v>124020.200531005</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>119271.164199829</c:v>
+                  <c:v>125087.829193115</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>122492.809661865</c:v>
+                  <c:v>127435.246002197</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>126896.648162841</c:v>
+                  <c:v>130271.949600219</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>126048.85391235301</c:v>
+                  <c:v>130625.222824096</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>129392.956787109</c:v>
+                  <c:v>132284.143218994</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>129392.956787109</c:v>
+                  <c:v>132284.143218994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3776,151 +3770,151 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="49"/>
                 <c:pt idx="0">
-                  <c:v>100695.45869445799</c:v>
+                  <c:v>101422.29321289</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100576.963211059</c:v>
+                  <c:v>101863.1169281</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>101544.37995910599</c:v>
+                  <c:v>102496.07554626399</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>101995.615554809</c:v>
+                  <c:v>102664.012832641</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>102714.753250122</c:v>
+                  <c:v>102440.999755859</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>102166.930618286</c:v>
+                  <c:v>100388.146835327</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>101001.62556457501</c:v>
+                  <c:v>100375.678085327</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>104418.066604614</c:v>
+                  <c:v>102854.694885253</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>104997.639846801</c:v>
+                  <c:v>105393.416351318</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>104665.453811645</c:v>
+                  <c:v>105137.00584411601</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>104039.177322387</c:v>
+                  <c:v>105800.534744262</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>102813.548660278</c:v>
+                  <c:v>107385.349243164</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>100273.351760864</c:v>
+                  <c:v>105508.45156860301</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>101532.601150512</c:v>
+                  <c:v>106098.670120239</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>103156.353836059</c:v>
+                  <c:v>105975.421096801</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>104181.830398559</c:v>
+                  <c:v>109653.59596252401</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>104565.999221801</c:v>
+                  <c:v>110436.149780273</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>104601.206008911</c:v>
+                  <c:v>109829.197311401</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>104547.30525207501</c:v>
+                  <c:v>110553.24092102</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>107558.96784973099</c:v>
+                  <c:v>110993.90107727</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>112188.517440795</c:v>
+                  <c:v>111014.252090454</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>111466.521865844</c:v>
+                  <c:v>109429.869857788</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>110538.859573364</c:v>
+                  <c:v>109156.212341308</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>112534.200332641</c:v>
+                  <c:v>108737.53434753401</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>111917.226913452</c:v>
+                  <c:v>108474.84082031201</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>111466.521865844</c:v>
+                  <c:v>107801.065567016</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>111554.040328979</c:v>
+                  <c:v>107333.38897705</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>111912.84931945799</c:v>
+                  <c:v>107552.289260864</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>112647.977676391</c:v>
+                  <c:v>108414.431564331</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>113037.416458129</c:v>
+                  <c:v>108029.14706420799</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>112455.443740844</c:v>
+                  <c:v>108210.49124145501</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>112363.561050415</c:v>
+                  <c:v>108069.138916015</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>113054.92683410599</c:v>
+                  <c:v>108733.67086791901</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>111295.862533569</c:v>
+                  <c:v>107867.823379516</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>107458.329971313</c:v>
+                  <c:v>102728.133132934</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>108504.13383483799</c:v>
+                  <c:v>104337.558227539</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>108552.267318725</c:v>
+                  <c:v>103590.74244689901</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>109239.262191772</c:v>
+                  <c:v>103714.63714599601</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>108412.244461059</c:v>
+                  <c:v>103020.966720581</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>110530.104385375</c:v>
+                  <c:v>105032.450119018</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>114883.985855102</c:v>
+                  <c:v>109167.643478393</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>115115.89808654699</c:v>
+                  <c:v>109375.943527221</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>113225.57948303199</c:v>
+                  <c:v>107847.92353820799</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>113720.02705383299</c:v>
+                  <c:v>108169.060592651</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>115137.792739868</c:v>
+                  <c:v>109217.036087036</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>117758.85542297301</c:v>
+                  <c:v>111937.511886596</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>117841.996292114</c:v>
+                  <c:v>111891.808349609</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>118148.307571411</c:v>
+                  <c:v>114213.116607666</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>118148.307571411</c:v>
+                  <c:v>114213.116607666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11573,16 +11567,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>4760</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>595310</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11610,15 +11604,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>14287</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11960,7 +11954,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9F1E825B-040F-4C7B-8A58-9EBE86B5DE93}" name="PivotTable8" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9F1E825B-040F-4C7B-8A58-9EBE86B5DE93}" name="PivotTable8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A25:F27" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisCol" showAll="0">
@@ -12005,6 +11999,120 @@
   </colItems>
   <dataFields count="1">
     <dataField name="Sum of Sharpe_Ratio" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="10">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="4">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5474FF7F-BF14-441B-B41F-09AB69E60730}" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+  <location ref="A12:F14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisCol" showAll="0">
+      <items count="7">
+        <item x="2"/>
+        <item x="1"/>
+        <item h="1" x="4"/>
+        <item h="1" x="5"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Total_Return_Pct" fld="1" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
     <format dxfId="11">
@@ -12073,122 +12181,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5474FF7F-BF14-441B-B41F-09AB69E60730}" name="PivotTable7" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
-  <location ref="A12:F14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField axis="axisCol" showAll="0">
-      <items count="7">
-        <item x="2"/>
-        <item x="1"/>
-        <item h="1" x="4"/>
-        <item h="1" x="5"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colFields count="1">
-    <field x="0"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Total_Return_Pct" fld="1" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="12">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="4">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8F1970B8-2BC2-41DE-856F-4F80B02CF665}" name="PivotTable5" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8F1970B8-2BC2-41DE-856F-4F80B02CF665}" name="PivotTable5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
   <location ref="A28:H30" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisCol" showAll="0">
@@ -12238,7 +12232,7 @@
     <dataField name="Sum of Total_Return_Rate" fld="1" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="9">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -12329,7 +12323,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F7B93A01-0890-4ACB-B9E0-4C55C552BB1D}" name="PivotTable4" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F7B93A01-0890-4ACB-B9E0-4C55C552BB1D}" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="A12:H14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisCol" showAll="0">
@@ -12379,7 +12373,7 @@
     <dataField name="Sum of Sharpe_Ratio" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="10">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -12474,7 +12468,7 @@
   <autoFilter ref="A1:H50" xr:uid="{0EECC7B8-19A9-42E2-836D-3C51650489ED}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{F30C9E18-7779-4B57-A24B-1BF31E479BE9}" name="Time_Step"/>
-    <tableColumn id="8" xr3:uid="{D48EF248-B3FD-49AC-A819-FF631A809EB9}" name="Date" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{D48EF248-B3FD-49AC-A819-FF631A809EB9}" name="Date" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{B1B4F372-F8AC-4239-9C35-FD5043A5E5A2}" name="Buy_n_Hold"/>
     <tableColumn id="3" xr3:uid="{64648511-8E03-493F-9526-B5BAE896518F}" name="DDQN"/>
     <tableColumn id="4" xr3:uid="{DC96B5CC-EDCB-4118-91C1-EB41583FBD71}" name="DQN"/>
@@ -12487,24 +12481,27 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{83EF6A10-E38A-433F-94E4-3B86E7C76DDE}" name="Table6" displayName="Table6" ref="A1:C7" totalsRowShown="0">
-  <autoFilter ref="A1:C7" xr:uid="{83EF6A10-E38A-433F-94E4-3B86E7C76DDE}"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{83EF6A10-E38A-433F-94E4-3B86E7C76DDE}" name="Table6" displayName="Table6" ref="A1:D7" totalsRowShown="0">
+  <autoFilter ref="A1:D7" xr:uid="{83EF6A10-E38A-433F-94E4-3B86E7C76DDE}"/>
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{48F345CC-8C77-4C15-B168-0796940F8FCF}" name="Model"/>
-    <tableColumn id="2" xr3:uid="{CC5D913F-7524-4591-B5C3-BF7C9F27A022}" name="Final Return Percentage"/>
+    <tableColumn id="2" xr3:uid="{CC5D913F-7524-4591-B5C3-BF7C9F27A022}" name="Final Return Rate"/>
     <tableColumn id="3" xr3:uid="{9AB2A629-74AB-46E4-B769-277C52890C47}" name="Sharpe Ratio"/>
+    <tableColumn id="4" xr3:uid="{8A940A59-6862-4B8A-A05E-EADA4D9106D8}" name="Final Return Percentage">
+      <calculatedColumnFormula>Table6[[#This Row],[Final Return Rate]]*100</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{313C72F0-DAF3-4A97-B895-60B6EB7B8506}" name="Table4" displayName="Table4" ref="A1:C7" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{313C72F0-DAF3-4A97-B895-60B6EB7B8506}" name="Table4" displayName="Table4" ref="A1:C7" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <autoFilter ref="A1:C7" xr:uid="{313C72F0-DAF3-4A97-B895-60B6EB7B8506}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{923047B7-A0AE-4B76-B0B4-27E147D5F092}" name="Model" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{378E3D1F-69D6-4393-92D3-5F1DA4BA7273}" name="Final Return Percentage" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{3181D803-F359-421A-9C24-891E9B184881}" name="Sharpie Ratio" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{923047B7-A0AE-4B76-B0B4-27E147D5F092}" name="Model" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{378E3D1F-69D6-4393-92D3-5F1DA4BA7273}" name="Final Return Percentage" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{3181D803-F359-421A-9C24-891E9B184881}" name="Sharpie Ratio" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12829,8 +12826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E070157A-2A11-4C57-BBFD-97CA911B80C2}">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="Z38" sqref="Z38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12885,10 +12882,10 @@
         <v>100000.30100000001</v>
       </c>
       <c r="F2">
-        <v>102552.98614501899</v>
+        <v>104032.771316528</v>
       </c>
       <c r="G2">
-        <v>100695.45869445799</v>
+        <v>101422.29321289</v>
       </c>
       <c r="H2">
         <v>101927.844848632</v>
@@ -12911,10 +12908,10 @@
         <v>100000.66499999999</v>
       </c>
       <c r="F3">
-        <v>102672.1328125</v>
+        <v>105042.49905395501</v>
       </c>
       <c r="G3">
-        <v>100576.963211059</v>
+        <v>101863.1169281</v>
       </c>
       <c r="H3">
         <v>102198.60076904199</v>
@@ -12937,10 +12934,10 @@
         <v>100001.25290000001</v>
       </c>
       <c r="F4">
-        <v>102354.02850341699</v>
+        <v>105996.820449829</v>
       </c>
       <c r="G4">
-        <v>101544.37995910599</v>
+        <v>102496.07554626399</v>
       </c>
       <c r="H4">
         <v>102291.948852539</v>
@@ -12963,10 +12960,10 @@
         <v>100001.18489999999</v>
       </c>
       <c r="F5">
-        <v>102036.781799316</v>
+        <v>105858.732299804</v>
       </c>
       <c r="G5">
-        <v>101995.615554809</v>
+        <v>102664.012832641</v>
       </c>
       <c r="H5">
         <v>102736.395568847</v>
@@ -12989,10 +12986,10 @@
         <v>100000.47</v>
       </c>
       <c r="F6">
-        <v>103394.670410156</v>
+        <v>105967.46746826101</v>
       </c>
       <c r="G6">
-        <v>102714.753250122</v>
+        <v>102440.999755859</v>
       </c>
       <c r="H6">
         <v>104068.091125488</v>
@@ -13015,10 +13012,10 @@
         <v>99996.876170000003</v>
       </c>
       <c r="F7">
-        <v>102983.30200195299</v>
+        <v>103996.615005493</v>
       </c>
       <c r="G7">
-        <v>102166.930618286</v>
+        <v>100388.146835327</v>
       </c>
       <c r="H7">
         <v>104149.608154296</v>
@@ -13041,10 +13038,10 @@
         <v>99994.496310000002</v>
       </c>
       <c r="F8">
-        <v>102340.518066406</v>
+        <v>102707.282684326</v>
       </c>
       <c r="G8">
-        <v>101001.62556457501</v>
+        <v>100375.678085327</v>
       </c>
       <c r="H8">
         <v>103307.347412109</v>
@@ -13067,10 +13064,10 @@
         <v>99994.368319999994</v>
       </c>
       <c r="F9">
-        <v>107706.40527343701</v>
+        <v>105560.76260375899</v>
       </c>
       <c r="G9">
-        <v>104418.066604614</v>
+        <v>102854.694885253</v>
       </c>
       <c r="H9">
         <v>108921.089172363</v>
@@ -13093,10 +13090,10 @@
         <v>99995.304269999993</v>
       </c>
       <c r="F10">
-        <v>108859.212341308</v>
+        <v>107170.51890563899</v>
       </c>
       <c r="G10">
-        <v>104997.639846801</v>
+        <v>105393.416351318</v>
       </c>
       <c r="H10">
         <v>109588.99261474601</v>
@@ -13119,10 +13116,10 @@
         <v>99990.664529999995</v>
       </c>
       <c r="F11">
-        <v>109921.295654296</v>
+        <v>108930.45935058501</v>
       </c>
       <c r="G11">
-        <v>104665.453811645</v>
+        <v>105137.00584411601</v>
       </c>
       <c r="H11">
         <v>109722.15576171799</v>
@@ -13145,10 +13142,10 @@
         <v>99992.083440000002</v>
       </c>
       <c r="F12">
-        <v>109663.142028808</v>
+        <v>108287.93862915</v>
       </c>
       <c r="G12">
-        <v>104039.177322387</v>
+        <v>105800.534744262</v>
       </c>
       <c r="H12">
         <v>109306.325073242</v>
@@ -13171,10 +13168,10 @@
         <v>99995.023270000005</v>
       </c>
       <c r="F13">
-        <v>112090.416564941</v>
+        <v>108531.983291625</v>
       </c>
       <c r="G13">
-        <v>102813.548660278</v>
+        <v>107385.349243164</v>
       </c>
       <c r="H13">
         <v>109725.299072265</v>
@@ -13197,10 +13194,10 @@
         <v>100003.5638</v>
       </c>
       <c r="F14">
-        <v>111373.713378906</v>
+        <v>107271.106781005</v>
       </c>
       <c r="G14">
-        <v>100273.351760864</v>
+        <v>105508.45156860301</v>
       </c>
       <c r="H14">
         <v>108181.44989013601</v>
@@ -13223,10 +13220,10 @@
         <v>100003.3538</v>
       </c>
       <c r="F15">
-        <v>111732.66418457001</v>
+        <v>110782.460189819</v>
       </c>
       <c r="G15">
-        <v>101532.601150512</v>
+        <v>106098.670120239</v>
       </c>
       <c r="H15">
         <v>109087.98645019501</v>
@@ -13249,10 +13246,10 @@
         <v>100004.3288</v>
       </c>
       <c r="F16">
-        <v>112312.97781372</v>
+        <v>115127.92309570299</v>
       </c>
       <c r="G16">
-        <v>103156.353836059</v>
+        <v>105975.421096801</v>
       </c>
       <c r="H16">
         <v>110247.40997314399</v>
@@ -13275,10 +13272,10 @@
         <v>100004.21679999999</v>
       </c>
       <c r="F17">
-        <v>116523.69827270501</v>
+        <v>118427.12557983299</v>
       </c>
       <c r="G17">
-        <v>104181.830398559</v>
+        <v>109653.59596252401</v>
       </c>
       <c r="H17">
         <v>113098.390808105</v>
@@ -13301,10 +13298,10 @@
         <v>99999.337809999997</v>
       </c>
       <c r="F18">
-        <v>116512.00166320799</v>
+        <v>120483.71810913</v>
       </c>
       <c r="G18">
-        <v>104565.999221801</v>
+        <v>110436.149780273</v>
       </c>
       <c r="H18">
         <v>113108.86505126899</v>
@@ -13327,10 +13324,10 @@
         <v>99991.075779999999</v>
       </c>
       <c r="F19">
-        <v>116006.796188354</v>
+        <v>120908.088394165</v>
       </c>
       <c r="G19">
-        <v>104601.206008911</v>
+        <v>109829.197311401</v>
       </c>
       <c r="H19">
         <v>112980.0491333</v>
@@ -13353,10 +13350,10 @@
         <v>100002.3808</v>
       </c>
       <c r="F20">
-        <v>116800.358276367</v>
+        <v>119573.21510314901</v>
       </c>
       <c r="G20">
-        <v>104547.30525207501</v>
+        <v>110553.24092102</v>
       </c>
       <c r="H20">
         <v>113211.25122070299</v>
@@ -13379,10 +13376,10 @@
         <v>100003.2408</v>
       </c>
       <c r="F21">
-        <v>118578.843200683</v>
+        <v>121881.16859436</v>
       </c>
       <c r="G21">
-        <v>107558.96784973099</v>
+        <v>110993.90107727</v>
       </c>
       <c r="H21">
         <v>115555.641174316</v>
@@ -13405,10 +13402,10 @@
         <v>100017.81479999999</v>
       </c>
       <c r="F22">
-        <v>118891.50584411601</v>
+        <v>123600.983901977</v>
       </c>
       <c r="G22">
-        <v>112188.517440795</v>
+        <v>111014.252090454</v>
       </c>
       <c r="H22">
         <v>117127.386779785</v>
@@ -13431,10 +13428,10 @@
         <v>100006.4188</v>
       </c>
       <c r="F23">
-        <v>118406.416870117</v>
+        <v>121516.293273925</v>
       </c>
       <c r="G23">
-        <v>111466.521865844</v>
+        <v>109429.869857788</v>
       </c>
       <c r="H23">
         <v>116467.40234375</v>
@@ -13457,10 +13454,10 @@
         <v>100003.06080000001</v>
       </c>
       <c r="F24">
-        <v>116509.92587280201</v>
+        <v>123560.23529052699</v>
       </c>
       <c r="G24">
-        <v>110538.859573364</v>
+        <v>109156.212341308</v>
       </c>
       <c r="H24">
         <v>115167.358703613</v>
@@ -13483,10 +13480,10 @@
         <v>100004.78879999999</v>
       </c>
       <c r="F25">
-        <v>116028.968048095</v>
+        <v>120722.484786987</v>
       </c>
       <c r="G25">
-        <v>112534.200332641</v>
+        <v>108737.53434753401</v>
       </c>
       <c r="H25">
         <v>115715.04699707001</v>
@@ -13509,10 +13506,10 @@
         <v>100006.03879999999</v>
       </c>
       <c r="F26">
-        <v>116325.344055175</v>
+        <v>123370.57156372</v>
       </c>
       <c r="G26">
-        <v>111917.226913452</v>
+        <v>108474.84082031201</v>
       </c>
       <c r="H26">
         <v>115715.975646972</v>
@@ -13535,10 +13532,10 @@
         <v>100015.5548</v>
       </c>
       <c r="F27">
-        <v>115193.03421020501</v>
+        <v>123793.01019287101</v>
       </c>
       <c r="G27">
-        <v>111466.521865844</v>
+        <v>107801.065567016</v>
       </c>
       <c r="H27">
         <v>115106.19903564399</v>
@@ -13561,10 +13558,10 @@
         <v>100028.32580000001</v>
       </c>
       <c r="F28">
-        <v>114693.23583984299</v>
+        <v>123718.998046875</v>
       </c>
       <c r="G28">
-        <v>111554.040328979</v>
+        <v>107333.38897705</v>
       </c>
       <c r="H28">
         <v>115056.476745605</v>
@@ -13587,10 +13584,10 @@
         <v>100030.1738</v>
       </c>
       <c r="F29">
-        <v>115524.230346679</v>
+        <v>126211.252273559</v>
       </c>
       <c r="G29">
-        <v>111912.84931945799</v>
+        <v>107552.289260864</v>
       </c>
       <c r="H29">
         <v>115633.01544189399</v>
@@ -13613,10 +13610,10 @@
         <v>100034.95879999999</v>
       </c>
       <c r="F30">
-        <v>115918.631896972</v>
+        <v>123050.04560852</v>
       </c>
       <c r="G30">
-        <v>112647.977676391</v>
+        <v>108414.431564331</v>
       </c>
       <c r="H30">
         <v>116007.81463623</v>
@@ -13639,10 +13636,10 @@
         <v>100031.1488</v>
       </c>
       <c r="F31">
-        <v>115776.523468017</v>
+        <v>121886.604156494</v>
       </c>
       <c r="G31">
-        <v>113037.416458129</v>
+        <v>108029.14706420799</v>
       </c>
       <c r="H31">
         <v>116165.849304199</v>
@@ -13665,10 +13662,10 @@
         <v>100024.70080000001</v>
       </c>
       <c r="F32">
-        <v>118015.193405151</v>
+        <v>125747.20759582501</v>
       </c>
       <c r="G32">
-        <v>112455.443740844</v>
+        <v>108210.49124145501</v>
       </c>
       <c r="H32">
         <v>117252.07855224601</v>
@@ -13691,10 +13688,10 @@
         <v>100023.1008</v>
       </c>
       <c r="F33">
-        <v>115936.25999450601</v>
+        <v>122504.215194702</v>
       </c>
       <c r="G33">
-        <v>112363.561050415</v>
+        <v>108069.138916015</v>
       </c>
       <c r="H33">
         <v>116138.67889404199</v>
@@ -13717,10 +13714,10 @@
         <v>100036.5318</v>
       </c>
       <c r="F34">
-        <v>115471.14024353</v>
+        <v>123738.794784545</v>
       </c>
       <c r="G34">
-        <v>113054.92683410599</v>
+        <v>108733.67086791901</v>
       </c>
       <c r="H34">
         <v>116252.423400878</v>
@@ -13743,10 +13740,10 @@
         <v>100048.29580000001</v>
       </c>
       <c r="F35">
-        <v>113994.76252746501</v>
+        <v>123006.922195434</v>
       </c>
       <c r="G35">
-        <v>111295.862533569</v>
+        <v>107867.823379516</v>
       </c>
       <c r="H35">
         <v>114757.837219238</v>
@@ -13769,10 +13766,10 @@
         <v>100015.36079999999</v>
       </c>
       <c r="F36">
-        <v>111462.796020507</v>
+        <v>117574.111251831</v>
       </c>
       <c r="G36">
-        <v>107458.329971313</v>
+        <v>102728.133132934</v>
       </c>
       <c r="H36">
         <v>111670.98083496001</v>
@@ -13795,10 +13792,10 @@
         <v>100033.9368</v>
       </c>
       <c r="F37">
-        <v>114890.38973999</v>
+        <v>121960.498901367</v>
       </c>
       <c r="G37">
-        <v>108504.13383483799</v>
+        <v>104337.558227539</v>
       </c>
       <c r="H37">
         <v>113757.040100097</v>
@@ -13821,10 +13818,10 @@
         <v>100003.2638</v>
       </c>
       <c r="F38">
-        <v>115470.44833374</v>
+        <v>120686.459365844</v>
       </c>
       <c r="G38">
-        <v>108552.267318725</v>
+        <v>103590.74244689901</v>
       </c>
       <c r="H38">
         <v>114024.647521972</v>
@@ -13847,10 +13844,10 @@
         <v>100002.50380000001</v>
       </c>
       <c r="F39">
-        <v>117924.189376831</v>
+        <v>121961.650848388</v>
       </c>
       <c r="G39">
-        <v>109239.262191772</v>
+        <v>103714.63714599601</v>
       </c>
       <c r="H39">
         <v>115450.15106201101</v>
@@ -13873,10 +13870,10 @@
         <v>100010.2258</v>
       </c>
       <c r="F40">
-        <v>118083.212722778</v>
+        <v>120770.24635314901</v>
       </c>
       <c r="G40">
-        <v>108412.244461059</v>
+        <v>103020.966720581</v>
       </c>
       <c r="H40">
         <v>115104.02130126899</v>
@@ -13899,10 +13896,10 @@
         <v>100015.8658</v>
       </c>
       <c r="F41">
-        <v>119025.888809204</v>
+        <v>122708.74340820299</v>
       </c>
       <c r="G41">
-        <v>110530.104385375</v>
+        <v>105032.450119018</v>
       </c>
       <c r="H41">
         <v>116498.07098388601</v>
@@ -13925,10 +13922,10 @@
         <v>100013.4878</v>
       </c>
       <c r="F42">
-        <v>120727.331619262</v>
+        <v>125254.09109497</v>
       </c>
       <c r="G42">
-        <v>114883.985855102</v>
+        <v>109167.643478393</v>
       </c>
       <c r="H42">
         <v>119232.259216308</v>
@@ -13951,10 +13948,10 @@
         <v>100007.2718</v>
       </c>
       <c r="F43">
-        <v>118037.146499633</v>
+        <v>125515.286773681</v>
       </c>
       <c r="G43">
-        <v>115115.89808654699</v>
+        <v>109375.943527221</v>
       </c>
       <c r="H43">
         <v>118146.211242675</v>
@@ -13977,10 +13974,10 @@
         <v>100003.4878</v>
       </c>
       <c r="F44">
-        <v>118616.474487304</v>
+        <v>124020.200531005</v>
       </c>
       <c r="G44">
-        <v>113225.57948303199</v>
+        <v>107847.92353820799</v>
       </c>
       <c r="H44">
         <v>117615.29022216699</v>
@@ -14003,10 +14000,10 @@
         <v>100011.7598</v>
       </c>
       <c r="F45">
-        <v>119271.164199829</v>
+        <v>125087.829193115</v>
       </c>
       <c r="G45">
-        <v>113720.02705383299</v>
+        <v>108169.060592651</v>
       </c>
       <c r="H45">
         <v>118119.664001464</v>
@@ -14029,10 +14026,10 @@
         <v>100030.2098</v>
       </c>
       <c r="F46">
-        <v>122492.809661865</v>
+        <v>127435.246002197</v>
       </c>
       <c r="G46">
-        <v>115137.792739868</v>
+        <v>109217.036087036</v>
       </c>
       <c r="H46">
         <v>120226.3772583</v>
@@ -14055,10 +14052,10 @@
         <v>100054.2678</v>
       </c>
       <c r="F47">
-        <v>126896.648162841</v>
+        <v>130271.949600219</v>
       </c>
       <c r="G47">
-        <v>117758.85542297301</v>
+        <v>111937.511886596</v>
       </c>
       <c r="H47">
         <v>123530.062561035</v>
@@ -14081,10 +14078,10 @@
         <v>100099.1058</v>
       </c>
       <c r="F48">
-        <v>126048.85391235301</v>
+        <v>130625.222824096</v>
       </c>
       <c r="G48">
-        <v>117841.996292114</v>
+        <v>111891.808349609</v>
       </c>
       <c r="H48">
         <v>123523.937072753</v>
@@ -14107,10 +14104,10 @@
         <v>100127.9538</v>
       </c>
       <c r="F49">
-        <v>129392.956787109</v>
+        <v>132284.143218994</v>
       </c>
       <c r="G49">
-        <v>118148.307571411</v>
+        <v>114213.116607666</v>
       </c>
       <c r="H49">
         <v>125068.235168457</v>
@@ -14133,10 +14130,10 @@
         <v>100127.9538</v>
       </c>
       <c r="F50">
-        <v>129392.956787109</v>
+        <v>132284.143218994</v>
       </c>
       <c r="G50">
-        <v>118148.307571411</v>
+        <v>114213.116607666</v>
       </c>
       <c r="H50">
         <v>125068.235168457</v>
@@ -14155,14 +14152,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0936994-3797-462D-82EF-5DF2E8179057}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
@@ -14171,15 +14168,18 @@
     <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
         <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -14187,10 +14187,14 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0.20547954693603501</v>
+        <v>0.32284143218994099</v>
       </c>
       <c r="C2">
-        <v>3.0108326573403899</v>
+        <v>4.38536062803131</v>
+      </c>
+      <c r="D2">
+        <f>Table6[[#This Row],[Final Return Rate]]*100</f>
+        <v>32.284143218994096</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -14198,10 +14202,14 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.18895185839843701</v>
+        <v>0.25068235168456998</v>
       </c>
       <c r="C3">
-        <v>4.85227511207788</v>
+        <v>5.1077547237426897</v>
+      </c>
+      <c r="D3">
+        <f>Table6[[#This Row],[Final Return Rate]]*100</f>
+        <v>25.068235168456997</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -14209,10 +14217,14 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>0.15724399999999999</v>
+        <v>0.157243999999999</v>
       </c>
       <c r="C4">
-        <v>3.06841310109832</v>
+        <v>3.0855120478786202</v>
+      </c>
+      <c r="D4">
+        <f>Table6[[#This Row],[Final Return Rate]]*100</f>
+        <v>15.7243999999999</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -14220,10 +14232,14 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0.11043414804077099</v>
+        <v>0.14213116607665999</v>
       </c>
       <c r="C5">
-        <v>2.7855380108282</v>
+        <v>2.6679172562144799</v>
+      </c>
+      <c r="D5">
+        <f>Table6[[#This Row],[Final Return Rate]]*100</f>
+        <v>14.213116607665999</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -14231,10 +14247,14 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>1.2795376281738199E-3</v>
+        <v>1.2795380000000199E-3</v>
       </c>
       <c r="C6">
-        <v>-19.269120857069399</v>
+        <v>-15.629280247808399</v>
+      </c>
+      <c r="D6">
+        <f>Table6[[#This Row],[Final Return Rate]]*100</f>
+        <v>0.127953800000002</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -14242,10 +14262,14 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>1.2795376281738199E-3</v>
+        <v>1.2795380000000199E-3</v>
       </c>
       <c r="C7">
-        <v>-19.269120857069399</v>
+        <v>-15.629280247808399</v>
+      </c>
+      <c r="D7">
+        <f>Table6[[#This Row],[Final Return Rate]]*100</f>
+        <v>0.127953800000002</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -14333,6 +14357,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
   <drawing r:id="rId4"/>
